--- a/uploads/sample1_ug_trb.xlsx
+++ b/uploads/sample1_ug_trb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KS Academy Salem Website\2026 students list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D463C4-2A80-458F-A27D-BFD298FD0672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562FD564-B67D-4535-80EB-8B4470AD02C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{B379DBBF-E439-4DE2-95DD-D479659A5DE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B379DBBF-E439-4DE2-95DD-D479659A5DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Generated_User_Credentials_2025" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="411">
   <si>
     <t>name</t>
   </si>
@@ -584,13 +584,683 @@
   </si>
   <si>
     <t>UG TRB</t>
+  </si>
+  <si>
+    <t>Kavitha Chandran</t>
+  </si>
+  <si>
+    <t>26kavit021</t>
+  </si>
+  <si>
+    <t>KSanUG#057</t>
+  </si>
+  <si>
+    <t>MAHESWARI .R</t>
+  </si>
+  <si>
+    <t>Prasanth R</t>
+  </si>
+  <si>
+    <t>Bhavani chennai</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>26mahe102</t>
+  </si>
+  <si>
+    <t>26pras023</t>
+  </si>
+  <si>
+    <t>KSwaUG#958</t>
+  </si>
+  <si>
+    <t>26bhav024</t>
+  </si>
+  <si>
+    <t>26kuma025</t>
+  </si>
+  <si>
+    <t>KSarUG&amp;061</t>
+  </si>
+  <si>
+    <t>KSthUG*059</t>
+  </si>
+  <si>
+    <t>KSniUG#067</t>
+  </si>
+  <si>
+    <t>Premnath A</t>
+  </si>
+  <si>
+    <t>26premn482</t>
+  </si>
+  <si>
+    <t>KSprUG@739</t>
+  </si>
+  <si>
+    <t>Rajalakshmi</t>
+  </si>
+  <si>
+    <t>26rajal615</t>
+  </si>
+  <si>
+    <t>KSraUG#284</t>
+  </si>
+  <si>
+    <t>bharathi Hi tech lab</t>
+  </si>
+  <si>
+    <t>26bharat903</t>
+  </si>
+  <si>
+    <t>KSbhUG*516</t>
+  </si>
+  <si>
+    <t>THIRUNAVUKKARASU O S</t>
+  </si>
+  <si>
+    <t>26thiru472</t>
+  </si>
+  <si>
+    <t>KSthUG@638</t>
+  </si>
+  <si>
+    <t>Tamilselvi</t>
+  </si>
+  <si>
+    <t>26tamil851</t>
+  </si>
+  <si>
+    <t>KStaUG#942</t>
+  </si>
+  <si>
+    <t>Sivapriya T</t>
+  </si>
+  <si>
+    <t>26sivap764</t>
+  </si>
+  <si>
+    <t>KSsiUG*319</t>
+  </si>
+  <si>
+    <t>Rethinavalli</t>
+  </si>
+  <si>
+    <t>26rethi493</t>
+  </si>
+  <si>
+    <t>KSreUG@875</t>
+  </si>
+  <si>
+    <t>Jerline Princy</t>
+  </si>
+  <si>
+    <t>26jerli621</t>
+  </si>
+  <si>
+    <t>KSjeUG#407</t>
+  </si>
+  <si>
+    <t>Prafiga</t>
+  </si>
+  <si>
+    <t>26prafi358</t>
+  </si>
+  <si>
+    <t>KSprUG*692</t>
+  </si>
+  <si>
+    <t>kalaiselvi N</t>
+  </si>
+  <si>
+    <t>26kalai901</t>
+  </si>
+  <si>
+    <t>Sundari</t>
+  </si>
+  <si>
+    <t>26sunda447</t>
+  </si>
+  <si>
+    <t>KSsuUG#208</t>
+  </si>
+  <si>
+    <t>M.Kalaivani</t>
+  </si>
+  <si>
+    <t>26kalai736</t>
+  </si>
+  <si>
+    <t>KSkaUG*964</t>
+  </si>
+  <si>
+    <t>S Nithya</t>
+  </si>
+  <si>
+    <t>26nithy584</t>
+  </si>
+  <si>
+    <t>KSniUG@731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekha(Pushpa) </t>
+  </si>
+  <si>
+    <t>26rekha392</t>
+  </si>
+  <si>
+    <t>KSreUG#845</t>
+  </si>
+  <si>
+    <t>Krishnamoorthi</t>
+  </si>
+  <si>
+    <t>26krish610</t>
+  </si>
+  <si>
+    <t>KSkrUG*273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Raji(Rajeswari)</t>
+  </si>
+  <si>
+    <t>26rajes749</t>
+  </si>
+  <si>
+    <t>KSraUG@581</t>
+  </si>
+  <si>
+    <t>P Kannagi</t>
+  </si>
+  <si>
+    <t>26kanna432</t>
+  </si>
+  <si>
+    <t>KSkaUG#694</t>
+  </si>
+  <si>
+    <t>Vijayalakshmi K</t>
+  </si>
+  <si>
+    <t>26vijay587</t>
+  </si>
+  <si>
+    <t>KSviUG*419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalai Varun(kalai selvi) </t>
+  </si>
+  <si>
+    <t>26kalai823</t>
+  </si>
+  <si>
+    <t>KSkaUG@752</t>
+  </si>
+  <si>
+    <t>Vanitha C</t>
+  </si>
+  <si>
+    <t>26vanit406</t>
+  </si>
+  <si>
+    <t>KSvaUG#318</t>
+  </si>
+  <si>
+    <t>Jayarani Jayarani</t>
+  </si>
+  <si>
+    <t>26jayar945</t>
+  </si>
+  <si>
+    <t>KSjaUG*602</t>
+  </si>
+  <si>
+    <t>Narmadha P</t>
+  </si>
+  <si>
+    <t>26narma271</t>
+  </si>
+  <si>
+    <t>KSnaUG@843</t>
+  </si>
+  <si>
+    <t>Silambarasi Yazh</t>
+  </si>
+  <si>
+    <t>26silam518</t>
+  </si>
+  <si>
+    <t>KSsiUG#790</t>
+  </si>
+  <si>
+    <t>Kaviyarasan</t>
+  </si>
+  <si>
+    <t>26kaviy634</t>
+  </si>
+  <si>
+    <t>KSkaUG*452</t>
+  </si>
+  <si>
+    <t>Deepa .P</t>
+  </si>
+  <si>
+    <t>Mareeswari</t>
+  </si>
+  <si>
+    <t>Arivu(Arivazhagan)</t>
+  </si>
+  <si>
+    <t>Bhuvaneshwari Sathasivam</t>
+  </si>
+  <si>
+    <t>Kannan</t>
+  </si>
+  <si>
+    <t>Sathiya Narayanan A</t>
+  </si>
+  <si>
+    <t>pradeepa sivaguhan</t>
+  </si>
+  <si>
+    <t>26deepa482</t>
+  </si>
+  <si>
+    <t>KSdeUG@739</t>
+  </si>
+  <si>
+    <t>26maree615</t>
+  </si>
+  <si>
+    <t>KSmaUG#284</t>
+  </si>
+  <si>
+    <t>26arivu903</t>
+  </si>
+  <si>
+    <t>KSarUG*516</t>
+  </si>
+  <si>
+    <t>26bhuva472</t>
+  </si>
+  <si>
+    <t>KSbhUG@638</t>
+  </si>
+  <si>
+    <t>26kanna851</t>
+  </si>
+  <si>
+    <t>KSkaUG#942</t>
+  </si>
+  <si>
+    <t>26sathi764</t>
+  </si>
+  <si>
+    <t>KSsaUG*319</t>
+  </si>
+  <si>
+    <t>26prade493</t>
+  </si>
+  <si>
+    <t>KSprUG@875</t>
+  </si>
+  <si>
+    <t>Rajendran T</t>
+  </si>
+  <si>
+    <t>Nikilaa</t>
+  </si>
+  <si>
+    <t>selva priya</t>
+  </si>
+  <si>
+    <t>E.Bhuvana SIAPHY031</t>
+  </si>
+  <si>
+    <t>Balakarthi</t>
+  </si>
+  <si>
+    <t>RENITA MARY</t>
+  </si>
+  <si>
+    <t>Elakkiya</t>
+  </si>
+  <si>
+    <t>Kavitha</t>
+  </si>
+  <si>
+    <t>Jeffrinbeniker V</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>RICHARD WILSON MARTIN M</t>
+  </si>
+  <si>
+    <t>G.TAMILVENI</t>
+  </si>
+  <si>
+    <t>Balu</t>
+  </si>
+  <si>
+    <t>26rajen482</t>
+  </si>
+  <si>
+    <t>KSraUG@739</t>
+  </si>
+  <si>
+    <t>26nikil615</t>
+  </si>
+  <si>
+    <t>KSniUG#284</t>
+  </si>
+  <si>
+    <t>26balak851</t>
+  </si>
+  <si>
+    <t>KSbaUG#942</t>
+  </si>
+  <si>
+    <t>26renit764</t>
+  </si>
+  <si>
+    <t>KSreUG*319</t>
+  </si>
+  <si>
+    <t>26elakk493</t>
+  </si>
+  <si>
+    <t>KSelUG@875</t>
+  </si>
+  <si>
+    <t>26kavit621</t>
+  </si>
+  <si>
+    <t>KSkaUG#407</t>
+  </si>
+  <si>
+    <t>26jeffr358</t>
+  </si>
+  <si>
+    <t>KSjeUG*692</t>
+  </si>
+  <si>
+    <t>26gopi901</t>
+  </si>
+  <si>
+    <t>KSgoUG@513</t>
+  </si>
+  <si>
+    <t>26richa447</t>
+  </si>
+  <si>
+    <t>KSriUG#208</t>
+  </si>
+  <si>
+    <t>26tamil736</t>
+  </si>
+  <si>
+    <t>KStaUG*964</t>
+  </si>
+  <si>
+    <t>26balu584</t>
+  </si>
+  <si>
+    <t>KSbaUG@731</t>
+  </si>
+  <si>
+    <t>KSseUG*806</t>
+  </si>
+  <si>
+    <t>26selva913</t>
+  </si>
+  <si>
+    <t>26bhuva572</t>
+  </si>
+  <si>
+    <t>KSbhUG@018</t>
+  </si>
+  <si>
+    <t>Sharmila</t>
+  </si>
+  <si>
+    <t>SUDHAKARAN R</t>
+  </si>
+  <si>
+    <t>SENTHAMIL SELVI M</t>
+  </si>
+  <si>
+    <t>V.Fairose</t>
+  </si>
+  <si>
+    <t>SANKAR S</t>
+  </si>
+  <si>
+    <t>Sam Bennet Durai</t>
+  </si>
+  <si>
+    <t>Thailarani</t>
+  </si>
+  <si>
+    <t>Karthika.G</t>
+  </si>
+  <si>
+    <t>Hemalatha</t>
+  </si>
+  <si>
+    <t>Prasanna Malliga</t>
+  </si>
+  <si>
+    <t>Booma bose</t>
+  </si>
+  <si>
+    <t>Manjula</t>
+  </si>
+  <si>
+    <t>VENKATESAN T</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>SHANTHI 7502016001</t>
+  </si>
+  <si>
+    <t>Sree Vishvatha</t>
+  </si>
+  <si>
+    <t>K.Dhivyabharathi</t>
+  </si>
+  <si>
+    <t>krishna veni</t>
+  </si>
+  <si>
+    <t>Subathra E</t>
+  </si>
+  <si>
+    <t>Deepac</t>
+  </si>
+  <si>
+    <t>Elakkiya A</t>
+  </si>
+  <si>
+    <t>ELAKIYA M</t>
+  </si>
+  <si>
+    <t>Chitra Madhayan</t>
+  </si>
+  <si>
+    <t>Karthiks</t>
+  </si>
+  <si>
+    <t>Ranjani M</t>
+  </si>
+  <si>
+    <t>26sharm482</t>
+  </si>
+  <si>
+    <t>KSshUG@739</t>
+  </si>
+  <si>
+    <t>26kalai615</t>
+  </si>
+  <si>
+    <t>KSkaUG#284</t>
+  </si>
+  <si>
+    <t>26sudha903</t>
+  </si>
+  <si>
+    <t>KSsuUG*516</t>
+  </si>
+  <si>
+    <t>26senth472</t>
+  </si>
+  <si>
+    <t>KSseUG@638</t>
+  </si>
+  <si>
+    <t>26fairo851</t>
+  </si>
+  <si>
+    <t>KSfaUG#942</t>
+  </si>
+  <si>
+    <t>26sanka764</t>
+  </si>
+  <si>
+    <t>26samben493</t>
+  </si>
+  <si>
+    <t>KSsaUG@875</t>
+  </si>
+  <si>
+    <t>26thail621</t>
+  </si>
+  <si>
+    <t>KSthUG#407</t>
+  </si>
+  <si>
+    <t>26hemal901</t>
+  </si>
+  <si>
+    <t>KSheUG@513</t>
+  </si>
+  <si>
+    <t>26prasa447</t>
+  </si>
+  <si>
+    <t>KSprUG#208</t>
+  </si>
+  <si>
+    <t>26booma736</t>
+  </si>
+  <si>
+    <t>KSboUG*964</t>
+  </si>
+  <si>
+    <t>26manju584</t>
+  </si>
+  <si>
+    <t>KSmaUG@731</t>
+  </si>
+  <si>
+    <t>26sharm392</t>
+  </si>
+  <si>
+    <t>KSshUG#845</t>
+  </si>
+  <si>
+    <t>26venka610</t>
+  </si>
+  <si>
+    <t>KSveUG*273</t>
+  </si>
+  <si>
+    <t>26gowri749</t>
+  </si>
+  <si>
+    <t>KSgoUG@581</t>
+  </si>
+  <si>
+    <t>26shant432</t>
+  </si>
+  <si>
+    <t>KSshUG#694</t>
+  </si>
+  <si>
+    <t>26sreev587</t>
+  </si>
+  <si>
+    <t>KSsrUG*419</t>
+  </si>
+  <si>
+    <t>26dhivy823</t>
+  </si>
+  <si>
+    <t>KSdhUG@752</t>
+  </si>
+  <si>
+    <t>26krish406</t>
+  </si>
+  <si>
+    <t>KSkrUG#318</t>
+  </si>
+  <si>
+    <t>26subat945</t>
+  </si>
+  <si>
+    <t>KSsuUG*602</t>
+  </si>
+  <si>
+    <t>26hemal271</t>
+  </si>
+  <si>
+    <t>KSheUG@843</t>
+  </si>
+  <si>
+    <t>26deepa518</t>
+  </si>
+  <si>
+    <t>KSdeUG#790</t>
+  </si>
+  <si>
+    <t>26elakk634</t>
+  </si>
+  <si>
+    <t>KSelUG*452</t>
+  </si>
+  <si>
+    <t>26elaki701</t>
+  </si>
+  <si>
+    <t>KSelUG@986</t>
+  </si>
+  <si>
+    <t>26chitr329</t>
+  </si>
+  <si>
+    <t>KSchUG#541</t>
+  </si>
+  <si>
+    <t>26karth684</t>
+  </si>
+  <si>
+    <t>26ranja513</t>
+  </si>
+  <si>
+    <t>KSraUG@840</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +1400,40 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF7D8592"/>
+      <name val="Nunito Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7D8592"/>
+      <name val="Nunito Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7D8592"/>
+      <name val="Nunito Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7D8592"/>
+      <name val="Nunito Sans"/>
     </font>
   </fonts>
   <fills count="33">
@@ -913,7 +1617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1086,8 +1790,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1130,8 +1847,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1143,8 +1861,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1178,6 +1909,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1518,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DC27C8-88B8-4904-A062-AE4FF455C21A}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,6 +2261,7 @@
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2056,7 +2789,7 @@
       <c r="B38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2203,7 +2936,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>145</v>
       </c>
@@ -2217,7 +2950,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>148</v>
       </c>
@@ -2231,7 +2964,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>151</v>
       </c>
@@ -2245,7 +2978,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>154</v>
       </c>
@@ -2259,7 +2992,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>157</v>
       </c>
@@ -2273,7 +3006,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>160</v>
       </c>
@@ -2287,7 +3020,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>163</v>
       </c>
@@ -2301,7 +3034,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>166</v>
       </c>
@@ -2315,7 +3048,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>169</v>
       </c>
@@ -2329,7 +3062,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>172</v>
       </c>
@@ -2343,7 +3076,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>175</v>
       </c>
@@ -2357,7 +3090,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>178</v>
       </c>
@@ -2371,7 +3104,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>181</v>
       </c>
@@ -2385,507 +3118,1321 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="5"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="5"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="5"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="5"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="5"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="5"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="5"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="5"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="5"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="5"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="5"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="5"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="5"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="5"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="5"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A68" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A69" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A70" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A71" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A72" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A73" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A74" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A75" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A76" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A77" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A78" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A79" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A80" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A81" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A82" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A83" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A84" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A85" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A86" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A87" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A88" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A89" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A90" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A91" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A92" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A97" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A102" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A103" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A104" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A105" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A106" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A107" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A108" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A109" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A110" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A111" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A114" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A115" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="15"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A118" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E118" s="15"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A120" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E120" s="15"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A121" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E121" s="15"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A122" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E122" s="15"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A123" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E123" s="15"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A124" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E124" s="15"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A125" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" s="15"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A126" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="15"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A127" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127" s="15"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A128" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128" s="15"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+    </row>
+    <row r="129" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A129" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" s="15"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+    </row>
+    <row r="130" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A130" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E130" s="15"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A131" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E131" s="15"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133" s="11"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A136" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E136" s="15"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+    </row>
+    <row r="137" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A137" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E137" s="15"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+    </row>
+    <row r="138" spans="1:8" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A138" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E138" s="15"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+    </row>
+    <row r="139" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="15"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -4536,7 +6083,12 @@
       <c r="D418" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C38" r:id="rId1" xr:uid="{27E03947-1140-41FB-A281-610E99EC775F}"/>
+    <hyperlink ref="C102" r:id="rId2" xr:uid="{65985F7B-663A-4061-B8E3-510634AFBF88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>